--- a/Document/KhangPQ/reference.xlsx
+++ b/Document/KhangPQ/reference.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phamquangkhang/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khang\Desktop\Xanh-Hoa_Lac.git\Document\KhangPQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>https://bootsnipp.com/snippets/featured/panel-tables-with-filter</t>
   </si>
@@ -78,13 +75,34 @@
   </si>
   <si>
     <t>winston-daily-rotate-file</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/passport-google-oauth-2</t>
+  </si>
+  <si>
+    <t>http://ejs.co/</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/passport-google-id-token</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/winston</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/winston-daily-rotate-file</t>
+  </si>
+  <si>
+    <t>Using</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,18 +112,8 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF333333"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF6A8759"/>
-      <name val="Menlo"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF9876AA"/>
-      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,12 +124,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -130,9 +153,15 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -142,6 +171,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -410,92 +442,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C13"/>
+  <dimension ref="B2:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>